--- a/hardware/oled_array_v1/oled_array_v1_pin_mapping.xlsx
+++ b/hardware/oled_array_v1/oled_array_v1_pin_mapping.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>A7</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>A11</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
   </si>
 </sst>
 </file>
@@ -391,15 +397,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E8:M16"/>
+  <dimension ref="E6:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="8" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="5:17" x14ac:dyDescent="0.25">
       <c r="F8">
         <v>1</v>
       </c>
@@ -424,8 +446,14 @@
       <c r="M8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>1</v>
       </c>
@@ -453,8 +481,14 @@
       <c r="M9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>2</v>
       </c>
@@ -482,8 +516,14 @@
       <c r="M10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E11">
         <v>3</v>
       </c>
@@ -511,8 +551,14 @@
       <c r="M11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E12">
         <v>4</v>
       </c>
@@ -540,8 +586,14 @@
       <c r="M12">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E13">
         <v>5</v>
       </c>
@@ -569,8 +621,14 @@
       <c r="M13">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="P13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E14">
         <v>6</v>
       </c>
@@ -598,8 +656,14 @@
       <c r="M14">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E15">
         <v>7</v>
       </c>
@@ -627,8 +691,14 @@
       <c r="M15">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E16">
         <v>8</v>
       </c>
@@ -654,6 +724,188 @@
         <v>32</v>
       </c>
       <c r="M16">
+        <v>33</v>
+      </c>
+      <c r="P16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P18" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <v>53</v>
+      </c>
+      <c r="Q19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <v>52</v>
+      </c>
+      <c r="Q20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <v>51</v>
+      </c>
+      <c r="Q21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <v>50</v>
+      </c>
+      <c r="Q22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <v>43</v>
+      </c>
+      <c r="Q23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P24">
+        <v>42</v>
+      </c>
+      <c r="Q24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <v>45</v>
+      </c>
+      <c r="Q25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <v>44</v>
+      </c>
+      <c r="Q26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <v>47</v>
+      </c>
+      <c r="Q27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P28">
+        <v>46</v>
+      </c>
+      <c r="Q28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P29">
+        <v>49</v>
+      </c>
+      <c r="Q29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P30">
+        <v>48</v>
+      </c>
+      <c r="Q30">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <v>41</v>
+      </c>
+      <c r="Q31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P32">
+        <v>40</v>
+      </c>
+      <c r="Q32">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <v>39</v>
+      </c>
+      <c r="Q33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P34">
+        <v>38</v>
+      </c>
+      <c r="Q34">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P35">
+        <v>37</v>
+      </c>
+      <c r="Q35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P36">
+        <v>36</v>
+      </c>
+      <c r="Q36">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P37">
+        <v>35</v>
+      </c>
+      <c r="Q37">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P38">
+        <v>34</v>
+      </c>
+      <c r="Q38">
         <v>33</v>
       </c>
     </row>
